--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014617D8-42DE-DB49-BF43-D902784B7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F20C89-8582-1948-8536-2C59637D7969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23280" yWindow="-3100" windowWidth="23280" windowHeight="21100" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +40,270 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{8D553F1C-29C6-444D-A472-EBB4055DCFDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{E52DA23B-3336-AA47-AB08-212300B650A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{0CE9B8A9-42A4-3543-9ACD-FEA6E9D0140B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Illinois trip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{D221BCC0-ACEE-A24A-B4BE-2B3989939281}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Denver PTO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{6DA10E8A-8DB7-3B46-B627-6AE7B9EB006C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Multiple Fridays/long weekends</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{D1CFFE8D-A6E5-6447-89E6-7FC688677F66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bahamas cruise</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{ECBB31AF-3CF1-F64D-B774-CE2C73C0B194}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominican Republic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{7E09822F-AAB5-2C40-AE62-ED412D587736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcel visiting</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A46" authorId="0" shapeId="0" xr:uid="{AD801903-3EC3-FF46-BE65-AC2EC6778995}">
       <text>
         <r>
@@ -391,12 +655,6 @@
     <t>Logos</t>
   </si>
   <si>
-    <t>Kudos</t>
-  </si>
-  <si>
-    <t>Timesheets</t>
-  </si>
-  <si>
     <t>Bonus 1</t>
   </si>
   <si>
@@ -455,6 +713,12 @@
   </si>
   <si>
     <t>PTO Bonus (20)</t>
+  </si>
+  <si>
+    <t>Kudos (5 / 1)</t>
+  </si>
+  <si>
+    <t>Timesheets (-5)</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1202,7 @@
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,39 +1240,39 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <f>SUM(B6:B12)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C6:C12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1016,43 +1280,63 @@
         <v>8</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="1"/>
@@ -1065,20 +1349,34 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B10" s="9">
+        <v>20</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
@@ -1091,7 +1389,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -1104,7 +1402,7 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8">
         <f>SUM(B16:B22)</f>
@@ -1167,7 +1465,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="1"/>
@@ -1180,7 +1478,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
@@ -1193,7 +1491,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1"/>
@@ -1206,7 +1504,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1"/>
@@ -1219,7 +1517,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="1"/>
@@ -1232,7 +1530,7 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="8">
         <f>SUM(B26:B32)</f>
@@ -1297,8 +1595,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>10</v>
+      <c r="A28" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1"/>
@@ -1310,8 +1608,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>11</v>
+      <c r="A29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
@@ -1324,7 +1622,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
@@ -1337,7 +1635,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
@@ -1350,7 +1648,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="1"/>
@@ -1363,7 +1661,7 @@
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="8">
         <f>SUM(B36:B42)</f>
@@ -1428,8 +1726,8 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>10</v>
+      <c r="A38" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
@@ -1441,8 +1739,8 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>11</v>
+      <c r="A39" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="1"/>
@@ -1455,7 +1753,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="1"/>
@@ -1468,7 +1766,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="1"/>
@@ -1481,7 +1779,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="1"/>
@@ -1494,7 +1792,7 @@
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="8">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B56)),B56,0),IF(NOT(ISBLANK(B57)),B57*2,0))</f>
@@ -1531,7 +1829,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="1"/>
@@ -1544,7 +1842,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="1"/>
@@ -1557,7 +1855,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="1"/>
@@ -1570,7 +1868,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="1"/>
@@ -1583,7 +1881,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="1"/>
@@ -1596,7 +1894,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="1"/>
@@ -1609,7 +1907,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="1"/>
@@ -1622,7 +1920,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="1"/>
@@ -1635,7 +1933,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="1"/>
@@ -1648,7 +1946,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="1"/>
@@ -1661,39 +1959,39 @@
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F20C89-8582-1948-8536-2C59637D7969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6BB62-75AF-E947-B57D-48DA939DC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
@@ -896,10 +896,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,7 +1198,7 @@
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1244,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C6:C12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
@@ -1256,7 +1252,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
@@ -1339,9 +1335,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>-5</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>-5</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="5"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E60" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6BB62-75AF-E947-B57D-48DA939DC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D7EEF-E10C-1F44-92BC-337F305A4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
@@ -73,6 +73,186 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F4E59A24-4E7B-1840-A12C-7D07A53D6F7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{EE7E8ECF-8CD4-B94A-80DD-384E1AB582A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657645701587769
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861346016329</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{2895B3CA-1B3E-894D-871C-F6919CA60610}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861371215949
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{03BCD59E-5426-884E-AEF1-AF8D31E41848}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{D4F32E8B-05DC-BF40-AB59-6AD2EBD9C03C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657645701587769
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I8" authorId="0" shapeId="0" xr:uid="{E52DA23B-3336-AA47-AB08-212300B650A5}">
       <text>
         <r>
@@ -102,7 +282,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861326668199</t>
         </r>
       </text>
     </comment>
@@ -1198,7 +1379,7 @@
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,54 +1421,58 @@
       </c>
       <c r="B4" s="8">
         <f>SUM(B6:B12)</f>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C6:C12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9">
+        <v>9</v>
+      </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
@@ -1296,19 +1481,23 @@
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
@@ -1320,14 +1509,24 @@
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1336,13 +1535,15 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="1">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F9" s="1">
         <v>-5</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1963,35 +2164,35 @@
       </c>
       <c r="B60" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D7EEF-E10C-1F44-92BC-337F305A4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8552ADA-E7A9-CB4E-824D-4040DF97239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
@@ -1379,7 +1379,10 @@
   <dimension ref="A2:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,35 +2000,35 @@
       </c>
       <c r="B44" s="8">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B56)),B56,0),IF(NOT(ISBLANK(B57)),B57*2,0))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C56)),C56,0),IF(NOT(ISBLANK(C57)),C57*2,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2136,27 +2139,57 @@
       <c r="A56" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="B56" s="9">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="9">
+        <v>2</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
@@ -2164,35 +2197,35 @@
       </c>
       <c r="B60" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8552ADA-E7A9-CB4E-824D-4040DF97239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE45C95-8749-CB4C-BE8C-250D3FC84764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
@@ -69,7 +69,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660146434606379</t>
         </r>
       </text>
     </comment>
@@ -102,7 +103,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999</t>
         </r>
       </text>
     </comment>
@@ -178,9 +180,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861371215949
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861371215949
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969</t>
         </r>
       </text>
     </comment>
@@ -247,9 +269,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657645701587769
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657645701587769
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659031835839079
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660146434606379</t>
         </r>
       </text>
     </comment>
@@ -282,8 +324,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861326668199</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1655472837515509
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861326668199
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999</t>
         </r>
       </text>
     </comment>
@@ -1378,11 +1431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A58CC0-BB18-5D4E-B714-747D0C991847}">
   <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,11 +1477,11 @@
       </c>
       <c r="B4" s="8">
         <f>SUM(B6:B12)</f>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C6:C12)</f>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
@@ -1436,7 +1489,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
@@ -1452,7 +1505,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1460,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1468,7 +1521,9 @@
       <c r="D6" s="1">
         <v>27</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
       <c r="F6" s="1">
         <v>18</v>
       </c>
@@ -1485,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -1493,7 +1548,9 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
       <c r="F7" s="1">
         <v>23</v>
       </c>
@@ -1510,26 +1567,26 @@
         <v>30</v>
       </c>
       <c r="B8" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1558,7 +1615,9 @@
       <c r="B10" s="9">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
@@ -2000,35 +2059,35 @@
       </c>
       <c r="B44" s="8">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B56)),B56,0),IF(NOT(ISBLANK(B57)),B57*2,0))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C56)),C56,0),IF(NOT(ISBLANK(C57)),C57*2,0))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2140,28 +2199,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1">
         <v>9</v>
       </c>
-      <c r="D56" s="1">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1">
-        <v>6</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-      <c r="H56" s="1">
-        <v>6</v>
-      </c>
       <c r="I56" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2182,13 +2241,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1">
         <v>2</v>
       </c>
       <c r="I57" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2197,35 +2256,35 @@
       </c>
       <c r="B60" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE45C95-8749-CB4C-BE8C-250D3FC84764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B98FFE-E5B1-4A49-B125-5B54205CFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22660" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1657631724493139
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660665446380659</t>
         </r>
       </text>
     </comment>
@@ -147,7 +157,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861346016329</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861346016329
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660665369342759</t>
         </r>
       </text>
     </comment>
@@ -200,9 +211,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969</t>
         </r>
       </text>
     </comment>
@@ -289,9 +318,28 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660146434606379</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659032163334769
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732920857969
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660146434606379
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660665502778399</t>
         </r>
       </text>
     </comment>
@@ -334,9 +382,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861326668199
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861326668199
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1659732906481879
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660326919490999</t>
         </r>
       </text>
     </comment>
@@ -857,7 +923,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -953,6 +1019,12 @@
   </si>
   <si>
     <t>Timesheets (-5)</t>
+  </si>
+  <si>
+    <t>Eng Total</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1092,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,12 +1164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,6 +1191,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,151 +1519,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A58CC0-BB18-5D4E-B714-747D0C991847}">
-  <dimension ref="A2:I60"/>
+  <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="5" customWidth="1"/>
     <col min="2" max="9" width="20" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>SUM(B6:B12)</f>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C6:C12)</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="E6" s="1">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9">
-        <v>10</v>
-      </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>13</v>
@@ -1582,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
@@ -1590,10 +1683,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1">
         <v>-10</v>
       </c>
@@ -1609,10 +1702,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>20</v>
       </c>
       <c r="C10" s="1">
@@ -1638,10 +1731,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1651,10 +1744,10 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1663,11 +1756,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>SUM(B16:B22)</f>
         <v>0</v>
       </c>
@@ -1701,10 +1794,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1714,10 +1807,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1727,10 +1820,10 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1740,10 +1833,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1753,10 +1846,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1766,10 +1859,10 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1779,10 +1872,10 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1791,11 +1884,11 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>SUM(B26:B32)</f>
         <v>0</v>
       </c>
@@ -1829,13 +1922,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1845,10 +1938,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1858,10 +1951,10 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1871,10 +1964,10 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1884,10 +1977,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1897,10 +1990,10 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1910,10 +2003,10 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1922,11 +2015,11 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <f>SUM(B36:B42)</f>
         <v>0</v>
       </c>
@@ -1960,13 +2053,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1976,10 +2069,10 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1989,10 +2082,10 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2002,10 +2095,10 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2015,10 +2108,10 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2028,10 +2121,10 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2041,10 +2134,10 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2053,238 +2146,295 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="8">
-        <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B56)),B56,0),IF(NOT(ISBLANK(B57)),B57*2,0))</f>
+      <c r="B44" s="7">
+        <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
+        <v>12</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
         <v>14</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C56)),C56,0),IF(NOT(ISBLANK(C57)),C57*2,0))</f>
-        <v>13</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="D44" s="7">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
+      <c r="E44" s="7">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
         <v>7</v>
       </c>
       <c r="H56" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I56" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="C57" s="1"/>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="14">
+        <f>B56+(2*B57)</f>
+        <v>12</v>
+      </c>
+      <c r="C58" s="14">
+        <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
+        <v>14</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="E58" s="14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G58" s="14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H58" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I58" s="14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>71</v>
-      </c>
-      <c r="C60" s="2">
-        <f t="shared" ref="C60:I60" si="5">SUM(C4,C14,C24,C34,C44)</f>
-        <v>47</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="F60" s="2">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="5"/>
-        <v>61</v>
+      <c r="I61" s="2">
+        <f t="shared" si="6"/>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B98FFE-E5B1-4A49-B125-5B54205CFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3468874-67A6-FC4B-BA5C-AAC82E28B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22660" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,8 +157,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861346016329
-https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660665369342759</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1658861346016329
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1660665369342759</t>
         </r>
       </text>
     </comment>
@@ -601,6 +610,105 @@
             <family val="2"/>
           </rPr>
           <t>Marcel visiting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{F1FFBB76-6291-BA43-89D5-14A4019D1E25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1664913370747929</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{FB158980-30F5-AB49-BD53-9D8435DFAE98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1664913360087419</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{819CC423-1EF6-3248-8C66-4D8FEB85A6BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2x points: https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1663612546597049</t>
         </r>
       </text>
     </comment>
@@ -923,7 +1031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -1192,7 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1525,7 +1633,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,15 +1694,15 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1697,9 +1805,15 @@
       <c r="F9" s="1">
         <v>-5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -1762,7 +1876,7 @@
       </c>
       <c r="B14" s="7">
         <f>SUM(B16:B22)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:I14" si="1">SUM(C16:C22)</f>
@@ -1770,54 +1884,82 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>19</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1826,11 +1968,17 @@
       <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1839,9 +1987,13 @@
       <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>-5</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>-5</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -2152,44 +2304,48 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
         <v>33</v>
@@ -2251,7 +2407,9 @@
       <c r="A51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
         <v>33</v>
@@ -2310,28 +2468,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="1">
         <v>10</v>
       </c>
-      <c r="C56" s="1">
-        <v>10</v>
-      </c>
-      <c r="D56" s="1">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1">
-        <v>8</v>
-      </c>
       <c r="I56" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2339,28 +2497,28 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2369,35 +2527,35 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2406,35 +2564,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3468874-67A6-FC4B-BA5C-AAC82E28B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CEC26-047D-6F4C-928B-5ED4D5A9D8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-33440" yWindow="-1200" windowWidth="27840" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,82 @@
         </r>
       </text>
     </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{C4F9AAE1-DAE8-3E47-B920-9799524EF82B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507089305729</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{783463F0-12B1-8C47-B3BF-B0889948A31C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666798929771779
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666732759969909</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0" shapeId="0" xr:uid="{F1FFBB76-6291-BA43-89D5-14A4019D1E25}">
       <text>
         <r>
@@ -642,7 +718,70 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1664913370747929</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1664913370747929
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666798929771779
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1665536128546049
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507137626009</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{62844F86-1AF6-D542-8AC2-3E2D9E760EB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1665536128546049</t>
         </r>
       </text>
     </comment>
@@ -708,7 +847,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2x points: https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1663612546597049</t>
+          <t xml:space="preserve">2x points: https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1663612546597049
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666195978665799
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666732759969909</t>
         </r>
       </text>
     </comment>
@@ -1031,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -1630,10 +1789,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1876,35 +2035,35 @@
       </c>
       <c r="B14" s="7">
         <f>SUM(B16:B22)</f>
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:I14" si="1">SUM(C16:C22)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1912,23 +2071,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1">
         <v>16</v>
@@ -1939,23 +2098,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1">
         <v>5</v>
@@ -1965,19 +2124,25 @@
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
       <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1">
         <v>5</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1985,17 +2150,21 @@
         <v>31</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>-5</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>-5</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2304,31 +2473,31 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
@@ -2358,7 +2527,9 @@
       <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -2432,7 +2603,9 @@
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -2468,28 +2641,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1">
         <v>16</v>
       </c>
-      <c r="D56" s="1">
-        <v>19</v>
-      </c>
-      <c r="E56" s="1">
-        <v>17</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="H56" s="1">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1">
         <v>13</v>
-      </c>
-      <c r="G56" s="1">
-        <v>9</v>
-      </c>
-      <c r="H56" s="1">
-        <v>10</v>
-      </c>
-      <c r="I56" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2497,10 +2670,10 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -2509,16 +2682,16 @@
         <v>2</v>
       </c>
       <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1">
         <v>2</v>
       </c>
-      <c r="G57" s="1">
-        <v>9</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
       <c r="I57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2527,31 +2700,31 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
@@ -2564,35 +2737,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CEC26-047D-6F4C-928B-5ED4D5A9D8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3408483-F260-FA4A-A396-31B5CEE5E927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33440" yWindow="-1200" windowWidth="27840" windowHeight="17500" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507089305729</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507089305729
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1669210680905139</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{4B7B6152-CA0A-014D-BBFB-B8FF4BB39020}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1669210564742149</t>
         </r>
       </text>
     </comment>
@@ -748,7 +791,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507137626009</t>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1667507137626009
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1669210588035489
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1669210750423389</t>
         </r>
       </text>
     </comment>
@@ -1190,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -1792,7 +1855,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2035,27 +2098,27 @@
       </c>
       <c r="B14" s="7">
         <f>SUM(B16:B22)</f>
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:I14" si="1">SUM(C16:C22)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
@@ -2071,20 +2134,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="8">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1">
         <v>22</v>
@@ -2098,20 +2161,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
       <c r="G17" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1">
         <v>23</v>
@@ -2125,14 +2188,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="8">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2159,7 +2224,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
@@ -2473,19 +2538,19 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
@@ -2493,15 +2558,15 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,7 +2580,9 @@
       <c r="D46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="F46" s="16" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2609,9 @@
       <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -2555,7 +2624,9 @@
       <c r="A49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -2591,8 +2662,12 @@
       <c r="F51" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2641,28 +2716,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1">
         <v>15</v>
       </c>
       <c r="G56" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H56" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2670,25 +2745,25 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="1">
         <v>7</v>
@@ -2700,19 +2775,19 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
@@ -2720,15 +2795,15 @@
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2737,35 +2812,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymorris/Repos/scconstructorschampionship/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3408483-F260-FA4A-A396-31B5CEE5E927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FD0AC-BB5C-8A46-8488-00C23A7DAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-22500" yWindow="-3540" windowWidth="22480" windowHeight="18000" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1852,10 +1852,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B14" s="7">
         <f>SUM(B16:B22)</f>
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:I14" si="1">SUM(C16:C22)</f>
@@ -2114,11 +2114,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2144,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>22</v>
@@ -2161,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -2171,10 +2171,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1">
         <v>23</v>
@@ -2538,35 +2538,35 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2716,28 +2716,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>29</v>
       </c>
       <c r="E56" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" s="1">
         <v>18</v>
       </c>
       <c r="H56" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I56" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2745,28 +2745,28 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
       </c>
       <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
         <v>4</v>
       </c>
-      <c r="E57" s="1">
-        <v>3</v>
-      </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1">
         <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2775,35 +2775,35 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2812,35 +2812,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FD0AC-BB5C-8A46-8488-00C23A7DAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2227CE-FB27-9C40-93A7-9D0E6469EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22500" yWindow="-3540" windowWidth="22480" windowHeight="18000" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-22920" yWindow="-8660" windowWidth="22900" windowHeight="28300" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1841,7 +1841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1852,10 +1852,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:I24" si="2">SUM(C26:C32)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
@@ -2292,11 +2292,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2315,26 +2315,46 @@
         <v>8</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -2546,27 +2566,27 @@
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,7 +2608,9 @@
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="I46" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
@@ -2668,7 +2690,9 @@
       <c r="H51" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="16"/>
+      <c r="I51" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -2676,7 +2700,9 @@
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16" t="s">
         <v>33</v>
@@ -2719,25 +2745,25 @@
         <v>20</v>
       </c>
       <c r="C56" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G56" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1">
         <v>17</v>
       </c>
       <c r="I56" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2748,10 +2774,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
@@ -2763,10 +2789,10 @@
         <v>12</v>
       </c>
       <c r="H57" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2783,27 +2809,27 @@
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2816,31 +2842,31 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2227CE-FB27-9C40-93A7-9D0E6469EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499B91-8053-584A-B1D4-21EB2F87C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="-8660" windowWidth="22900" windowHeight="28300" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-29940" yWindow="-5540" windowWidth="29280" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
+    <author>Ryan Morrissey</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{8D553F1C-29C6-444D-A472-EBB4055DCFDD}">
@@ -931,6 +932,158 @@
             <family val="2"/>
           </rPr>
           <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1666732759969909</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="1" shapeId="0" xr:uid="{781AE761-664F-644D-87EE-85ED3FB749AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1671744190888669
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1670612893066489</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="1" shapeId="0" xr:uid="{B9CD6BCD-EF51-D147-A657-B19EC55D0577}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1671138247279569</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="1" shapeId="0" xr:uid="{6A8CF19A-3F4E-9B4C-B6B5-DFE2D0BA3B73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1671744190888669
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1671138247279569</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="1" shapeId="0" xr:uid="{E92E838B-13D0-4549-A8C8-7D1E3056A95F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New Feature Review</t>
         </r>
       </text>
     </comment>
@@ -1253,7 +1406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -1553,7 +1706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1841,7 +1994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1851,11 +2004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A58CC0-BB18-5D4E-B714-747D0C991847}">
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2255,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:I14" si="1">SUM(C16:C22)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
@@ -2215,9 +2368,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="1">
-        <v>-5</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>-5</v>
@@ -2276,35 +2427,35 @@
       </c>
       <c r="B24" s="7">
         <f>SUM(B26:B32)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:I24" si="2">SUM(C26:C32)</f>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2314,46 +2465,58 @@
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>9</v>
+      </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>39</v>
+      </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="H26" s="1">
+        <v>26</v>
+      </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <v>8</v>
+      </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
       <c r="G27" s="1">
-        <v>5</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13</v>
+      </c>
       <c r="I27" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2361,11 +2524,17 @@
         <v>30</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -2378,9 +2547,15 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="1">
+        <v>-10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
@@ -2388,7 +2563,9 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>23</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2558,35 +2735,35 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2606,8 +2783,12 @@
       <c r="F46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I46" s="16" t="s">
         <v>33</v>
       </c>
@@ -2620,7 +2801,9 @@
         <v>33</v>
       </c>
       <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="D47" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -2674,7 +2857,9 @@
       <c r="B51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D51" s="16" t="s">
         <v>33</v>
       </c>
@@ -2698,7 +2883,9 @@
       <c r="A52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
         <v>33</v>
@@ -2707,7 +2894,9 @@
       <c r="F52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
     </row>
@@ -2742,28 +2931,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1">
+        <v>27</v>
+      </c>
+      <c r="H56" s="1">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1">
         <v>20</v>
-      </c>
-      <c r="C56" s="1">
-        <v>24</v>
-      </c>
-      <c r="D56" s="1">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1">
-        <v>24</v>
-      </c>
-      <c r="F56" s="1">
-        <v>21</v>
-      </c>
-      <c r="G56" s="1">
-        <v>20</v>
-      </c>
-      <c r="H56" s="1">
-        <v>17</v>
-      </c>
-      <c r="I56" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2771,28 +2960,28 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
         <v>6</v>
       </c>
-      <c r="E57" s="1">
-        <v>4</v>
-      </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2801,35 +2990,35 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2838,35 +3027,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>171</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499B91-8053-584A-B1D4-21EB2F87C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C50C55F-F761-D141-B974-D774B2000428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="-5540" windowWidth="29280" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-28680" yWindow="-6900" windowWidth="28660" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1087,6 +1087,201 @@
         </r>
       </text>
     </comment>
+    <comment ref="B38" authorId="1" shapeId="0" xr:uid="{9B074917-E63C-6F49-930C-D685873A6CCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1679579258386629</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="1" shapeId="0" xr:uid="{0FF0277D-B333-A444-B95A-02FA2C7B5968}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1679579258386629
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207708169599
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207743104959
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="1" shapeId="0" xr:uid="{A20C42E3-88C2-124B-A73F-89CC0E170131}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680795616062349</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="1" shapeId="0" xr:uid="{8324F5DE-C473-7140-8817-6FED79F614BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207708169599</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="1" shapeId="0" xr:uid="{50D06453-8A15-314D-90C7-AA4DA7848527}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A46" authorId="0" shapeId="0" xr:uid="{AD801903-3EC3-FF46-BE65-AC2EC6778995}">
       <text>
         <r>
@@ -1406,7 +1601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -2005,10 +2200,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2427,7 +2622,7 @@
       </c>
       <c r="B24" s="7">
         <f>SUM(B26:B32)</f>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:I24" si="2">SUM(C26:C32)</f>
@@ -2443,7 +2638,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
@@ -2455,7 +2650,7 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2466,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
@@ -2478,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
         <v>19</v>
@@ -2487,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="I26" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2495,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
         <v>15</v>
@@ -2507,7 +2702,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1">
         <v>18</v>
@@ -2516,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2604,15 +2799,15 @@
       </c>
       <c r="B34" s="7">
         <f>SUM(B36:B42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:I34" si="3">SUM(C36:C42)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="3"/>
@@ -2620,19 +2815,19 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2643,37 +2838,63 @@
         <v>8</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1">
+        <v>14</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>12</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>15</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
@@ -2684,11 +2905,19 @@
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>-5</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="1">
+        <v>-20</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
@@ -2735,15 +2964,15 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
@@ -2751,19 +2980,19 @@
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2906,7 +3135,9 @@
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -2931,28 +3162,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C56" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1">
         <v>29</v>
       </c>
       <c r="F56" s="1">
+        <v>35</v>
+      </c>
+      <c r="G56" s="1">
         <v>31</v>
       </c>
-      <c r="G56" s="1">
-        <v>27</v>
-      </c>
       <c r="H56" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I56" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2963,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1">
         <v>10</v>
@@ -2972,16 +3203,16 @@
         <v>6</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I57" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2990,15 +3221,15 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
@@ -3006,19 +3237,19 @@
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3027,15 +3258,15 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
@@ -3043,19 +3274,19 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C50C55F-F761-D141-B974-D774B2000428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2A258-EF4E-6047-823A-2C41DF0E0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="-6900" windowWidth="28660" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="-30400" yWindow="-3640" windowWidth="24860" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,7 +1179,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1681402574349089</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{33859E93-8C69-2F45-8D90-9D7E755BFF3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1681143860677629</t>
         </r>
       </text>
     </comment>
@@ -1278,7 +1312,42 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869</t>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1680207836127869
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1681143860677629
+https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1681402574349089</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="1" shapeId="0" xr:uid="{01614013-9E0A-2E4F-BF6E-2BED0F9C002F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ryan Morrissey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://netsuite-gbu.slack.com/archives/GEHVD04GK/p1682523520003579</t>
         </r>
       </text>
     </comment>
@@ -1601,7 +1670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -2200,10 +2269,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2799,15 +2868,15 @@
       </c>
       <c r="B34" s="7">
         <f>SUM(B36:B42)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:I34" si="3">SUM(C36:C42)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="3"/>
@@ -2815,19 +2884,19 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2837,19 +2906,25 @@
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
       <c r="C36" s="1">
         <v>16</v>
       </c>
       <c r="D36" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
       <c r="G36" s="1">
-        <v>12</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
       <c r="I36" s="1">
         <v>30</v>
       </c>
@@ -2858,19 +2933,25 @@
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <v>5</v>
+      </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
       <c r="D37" s="1">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1">
         <v>10</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1">
         <v>8</v>
       </c>
@@ -2883,9 +2964,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
@@ -2893,30 +2976,36 @@
         <v>5</v>
       </c>
       <c r="G38" s="1">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
         <v>5</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8">
+        <v>-5</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>-5</v>
+      </c>
       <c r="E39" s="1">
         <v>-5</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="H39" s="1">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="I39" s="1">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2964,35 +3053,35 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3035,7 +3124,9 @@
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
     </row>
@@ -3126,7 +3217,9 @@
       <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="16"/>
+      <c r="H52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3140,7 +3233,9 @@
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
     </row>
@@ -3162,28 +3257,28 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1">
+        <v>46</v>
+      </c>
+      <c r="E56" s="1">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1">
+        <v>36</v>
+      </c>
+      <c r="G56" s="1">
         <v>34</v>
       </c>
-      <c r="D56" s="1">
-        <v>43</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="H56" s="1">
         <v>29</v>
       </c>
-      <c r="F56" s="1">
-        <v>35</v>
-      </c>
-      <c r="G56" s="1">
-        <v>31</v>
-      </c>
-      <c r="H56" s="1">
-        <v>24</v>
-      </c>
       <c r="I56" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3191,22 +3286,22 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
         <v>10</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57" s="1">
         <v>7</v>
@@ -3221,35 +3316,35 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3258,35 +3353,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/_data/FY23 Points Tracker Audit.xlsx
+++ b/_data/FY23 Points Tracker Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rymo/Repos/scconstructorschampionship/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2A258-EF4E-6047-823A-2C41DF0E0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36519F4-F80E-8F42-A95E-D5B816F514C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30400" yWindow="-3640" windowWidth="24860" windowHeight="24060" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{22CDB5ED-B949-C944-AE1C-CD3953B56213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1670,7 +1670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>John Szabo</t>
   </si>
@@ -2269,10 +2269,10 @@
   <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B34" s="7">
         <f>SUM(B36:B42)</f>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:I34" si="3">SUM(C36:C42)</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="3"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2907,26 +2907,28 @@
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
-        <v>18</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="1">
+        <v>54</v>
+      </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H36" s="1">
         <v>7</v>
       </c>
       <c r="I36" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2934,26 +2936,28 @@
         <v>9</v>
       </c>
       <c r="B37" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E37" s="1">
+        <v>18</v>
+      </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1">
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2988,7 +2992,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="8">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
@@ -2997,9 +3001,11 @@
       <c r="E39" s="1">
         <v>-5</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>-10</v>
+      </c>
       <c r="G39" s="1">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="H39" s="1">
         <v>-10</v>
@@ -3053,31 +3059,31 @@
       </c>
       <c r="B44" s="7">
         <f>SUM(IF(NOT(ISBLANK(B46)),5,0),IF(NOT(ISBLANK(B47)),10,0),IF(NOT(ISBLANK(B48)),15,0),IF(NOT(ISBLANK(B49)),20,0),IF(NOT(ISBLANK(B51)),5,0),IF(NOT(ISBLANK(B52)),10,0),IF(NOT(ISBLANK(B53)),15,0),IF(NOT(ISBLANK(B54)),20,0),IF(NOT(ISBLANK(B58)),B58,0))</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ref="C44:I44" si="4">SUM(IF(NOT(ISBLANK(C46)),5,0),IF(NOT(ISBLANK(C47)),10,0),IF(NOT(ISBLANK(C48)),15,0),IF(NOT(ISBLANK(C49)),20,0),IF(NOT(ISBLANK(C51)),5,0),IF(NOT(ISBLANK(C52)),10,0),IF(NOT(ISBLANK(C53)),15,0),IF(NOT(ISBLANK(C54)),20,0),IF(NOT(ISBLANK(C58)),C58,0))</f>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
@@ -3091,7 +3097,9 @@
       <c r="B46" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D46" s="16" t="s">
         <v>33</v>
       </c>
@@ -3122,8 +3130,12 @@
       <c r="D47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="G47" s="16" t="s">
         <v>33</v>
       </c>
@@ -3138,7 +3150,9 @@
         <v>33</v>
       </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -3206,11 +3220,15 @@
       <c r="B52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="F52" s="16" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3250,9 @@
         <v>33</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="G53" s="16" t="s">
         <v>33</v>
       </c>
@@ -3257,13 +3277,13 @@
         <v>26</v>
       </c>
       <c r="B56" s="8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1">
         <v>30</v>
@@ -3272,10 +3292,10 @@
         <v>36</v>
       </c>
       <c r="G56" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H56" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I56" s="1">
         <v>27</v>
@@ -3295,16 +3315,16 @@
         <v>10</v>
       </c>
       <c r="E57" s="1">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1">
         <v>8</v>
-      </c>
-      <c r="F57" s="1">
-        <v>8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>17</v>
-      </c>
-      <c r="H57" s="1">
-        <v>7</v>
       </c>
       <c r="I57" s="1">
         <v>16</v>
@@ -3316,31 +3336,31 @@
       </c>
       <c r="B58" s="14">
         <f>B56+(2*B57)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ref="C58:I58" si="5">C56+(2*C57)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="5"/>
@@ -3353,35 +3373,35 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B4,B14,B24,B34,B44)</f>
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ref="C61:I61" si="6">SUM(C4,C14,C24,C34,C44)</f>
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="6"/>
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="6"/>
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="6"/>
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="6"/>
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="6"/>
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
